--- a/src/main/resources/熊姐后台交互接口.xlsx
+++ b/src/main/resources/熊姐后台交互接口.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17D25228-9309-4515-9D3E-63895E42FC44}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50DB530C-B2A0-4C43-B03A-DC771B92C564}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="113">
   <si>
     <t>各功能接口</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -388,18 +388,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>0、40005</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>/templates/insertFillqusetion</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>0、1、40001、</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>.xlsx文件(格式详见D:\program\IdeaProjects\tos\src\main\resources\choicetest.xlsx)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -475,15 +467,31 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>/css/**、/img/**、/js/**不用验证就能访问，样式，图片，js放在这三个文件夹</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>看不懂这个表格就参看Text.html、login.html</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>在application.yml修改你的数据库密码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0、40003、40002</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0、40002</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0、1、40001、40002</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0、40005、40002</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>请在static目录下新建这三个文件夹   /css/**、/img/**、/js/**不用验证就能访问，样式，图片，js放在这三个文件夹</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -566,7 +574,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -579,18 +587,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -603,10 +609,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -895,8 +907,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39:J39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -974,40 +986,40 @@
       <c r="V2" s="11"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
       <c r="E3" s="3"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
       <c r="S3" s="3"/>
-      <c r="T3" s="8"/>
-      <c r="U3" s="8"/>
-      <c r="V3" s="8"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="6"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B4" s="12"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="5" t="s">
         <v>20</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G4" s="12"/>
       <c r="H4" s="12"/>
@@ -1017,7 +1029,7 @@
       <c r="J4" s="12"/>
       <c r="K4" s="12"/>
       <c r="L4" s="12" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="M4" s="12"/>
       <c r="N4" s="12"/>
@@ -1028,22 +1040,22 @@
       <c r="Q4" s="12"/>
       <c r="R4" s="12"/>
       <c r="T4" s="12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="U4" s="12"/>
       <c r="V4" s="12"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B5" s="12"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7" t="s">
+      <c r="C5" s="5"/>
+      <c r="D5" s="5" t="s">
         <v>20</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
@@ -1053,25 +1065,25 @@
       <c r="J5" s="12"/>
       <c r="K5" s="12"/>
       <c r="L5" s="12" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="M5" s="12"/>
       <c r="N5" s="12"/>
-      <c r="O5" s="7"/>
+      <c r="O5" s="5"/>
       <c r="P5" s="12" t="s">
         <v>69</v>
       </c>
       <c r="Q5" s="12"/>
       <c r="R5" s="12"/>
       <c r="T5" s="12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="U5" s="12"/>
       <c r="V5" s="12"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B6" s="12"/>
       <c r="C6" s="1"/>
@@ -1079,7 +1091,7 @@
         <v>20</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G6" s="12"/>
       <c r="H6" s="12"/>
@@ -1089,7 +1101,7 @@
       <c r="J6" s="12"/>
       <c r="K6" s="12"/>
       <c r="L6" s="12" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="M6" s="12"/>
       <c r="N6" s="12"/>
@@ -1100,22 +1112,22 @@
       <c r="Q6" s="12"/>
       <c r="R6" s="12"/>
       <c r="T6" s="12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="U6" s="12"/>
       <c r="V6" s="12"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="B7" s="12"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F7" s="12" t="s">
         <v>102</v>
-      </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>104</v>
       </c>
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
@@ -1127,7 +1139,7 @@
       </c>
       <c r="M7" s="12"/>
       <c r="N7" s="12"/>
-      <c r="O7" s="7"/>
+      <c r="O7" s="5"/>
       <c r="P7" s="12" t="s">
         <v>69</v>
       </c>
@@ -1391,545 +1403,545 @@
       <c r="U14" s="12"/>
       <c r="V14" s="12"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
+    <row r="15" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1" t="s">
+      <c r="B15" s="14"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F15" s="13" t="s">
+      <c r="F15" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="12" t="s">
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12" t="s">
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q15" s="12"/>
-      <c r="R15" s="12"/>
-      <c r="T15" s="12" t="s">
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="14"/>
+      <c r="T15" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="U15" s="14"/>
+      <c r="V15" s="14"/>
+    </row>
+    <row r="16" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="14"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q16" s="14"/>
+      <c r="R16" s="14"/>
+      <c r="T16" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="U16" s="14"/>
+      <c r="V16" s="14"/>
+    </row>
+    <row r="17" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="B17" s="14"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q17" s="14"/>
+      <c r="R17" s="14"/>
+      <c r="T17" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="U17" s="14"/>
+      <c r="V17" s="14"/>
+    </row>
+    <row r="18" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="B18" s="14"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="F18" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="U15" s="12"/>
-      <c r="V15" s="12"/>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="12"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1" t="s">
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q18" s="14"/>
+      <c r="R18" s="14"/>
+      <c r="T18" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="U18" s="14"/>
+      <c r="V18" s="14"/>
+    </row>
+    <row r="19" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="14"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F16" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="12" t="s">
+      <c r="F19" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12" t="s">
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="M19" s="14"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q19" s="14"/>
+      <c r="R19" s="14"/>
+      <c r="T19" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="U19" s="14"/>
+      <c r="V19" s="14"/>
+    </row>
+    <row r="20" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="14"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F20" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="M20" s="14"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q20" s="14"/>
+      <c r="R20" s="14"/>
+      <c r="T20" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="U20" s="14"/>
+      <c r="V20" s="14"/>
+    </row>
+    <row r="21" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="14"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F21" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="M21" s="14"/>
+      <c r="N21" s="14"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q21" s="14"/>
+      <c r="R21" s="14"/>
+      <c r="T21" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="U21" s="14"/>
+      <c r="V21" s="14"/>
+    </row>
+    <row r="22" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" s="14"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F22" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="M22" s="14"/>
+      <c r="N22" s="14"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q22" s="14"/>
+      <c r="R22" s="14"/>
+      <c r="T22" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="U22" s="14"/>
+      <c r="V22" s="14"/>
+    </row>
+    <row r="23" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" s="14"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F23" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="M16" s="12"/>
-      <c r="N16" s="12"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q16" s="12"/>
-      <c r="R16" s="12"/>
-      <c r="T16" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="U16" s="12"/>
-      <c r="V16" s="12"/>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="B17" s="12"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="F17" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="12" t="s">
+      <c r="M23" s="14"/>
+      <c r="N23" s="14"/>
+      <c r="O23" s="8"/>
+      <c r="P23" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q23" s="14"/>
+      <c r="R23" s="14"/>
+      <c r="T23" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="U23" s="14"/>
+      <c r="V23" s="14"/>
+    </row>
+    <row r="24" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" s="14"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F24" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="M17" s="12"/>
-      <c r="N17" s="12"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q17" s="12"/>
-      <c r="R17" s="12"/>
-      <c r="T17" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="U17" s="12"/>
-      <c r="V17" s="12"/>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="B18" s="12"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="F18" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="12" t="s">
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="M24" s="14"/>
+      <c r="N24" s="14"/>
+      <c r="O24" s="8"/>
+      <c r="P24" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q24" s="14"/>
+      <c r="R24" s="14"/>
+      <c r="T24" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="U24" s="14"/>
+      <c r="V24" s="14"/>
+    </row>
+    <row r="25" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" s="14"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F25" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="M18" s="12"/>
-      <c r="N18" s="12"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q18" s="12"/>
-      <c r="R18" s="12"/>
-      <c r="T18" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="U18" s="12"/>
-      <c r="V18" s="12"/>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F19" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="12" t="s">
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="M25" s="14"/>
+      <c r="N25" s="14"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q25" s="14"/>
+      <c r="R25" s="14"/>
+      <c r="T25" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="U25" s="14"/>
+      <c r="V25" s="14"/>
+    </row>
+    <row r="26" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" s="14"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="F26" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="M19" s="12"/>
-      <c r="N19" s="12"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q19" s="12"/>
-      <c r="R19" s="12"/>
-      <c r="T19" s="12">
-        <v>0</v>
-      </c>
-      <c r="U19" s="12"/>
-      <c r="V19" s="12"/>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" s="12"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F20" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="12" t="s">
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="M26" s="14"/>
+      <c r="N26" s="14"/>
+      <c r="O26" s="8"/>
+      <c r="P26" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q26" s="14"/>
+      <c r="R26" s="14"/>
+      <c r="T26" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="U26" s="14"/>
+      <c r="V26" s="14"/>
+    </row>
+    <row r="27" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27" s="14"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="F27" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="M20" s="12"/>
-      <c r="N20" s="12"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q20" s="12"/>
-      <c r="R20" s="12"/>
-      <c r="T20" s="12">
-        <v>0</v>
-      </c>
-      <c r="U20" s="12"/>
-      <c r="V20" s="12"/>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="B21" s="12"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F21" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="12" t="s">
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="M27" s="14"/>
+      <c r="N27" s="14"/>
+      <c r="O27" s="8"/>
+      <c r="P27" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q27" s="14"/>
+      <c r="R27" s="14"/>
+      <c r="T27" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="U27" s="14"/>
+      <c r="V27" s="14"/>
+    </row>
+    <row r="28" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28" s="14"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="M21" s="12"/>
-      <c r="N21" s="12"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q21" s="12"/>
-      <c r="R21" s="12"/>
-      <c r="T21" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="U21" s="12"/>
-      <c r="V21" s="12"/>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A22" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B22" s="12"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F22" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="12" t="s">
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="M28" s="14"/>
+      <c r="N28" s="14"/>
+      <c r="O28" s="8"/>
+      <c r="P28" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q28" s="14"/>
+      <c r="R28" s="14"/>
+      <c r="T28" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="U28" s="14"/>
+      <c r="V28" s="14"/>
+    </row>
+    <row r="29" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B29" s="14"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="F29" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="M22" s="12"/>
-      <c r="N22" s="12"/>
-      <c r="O22" s="1"/>
-      <c r="P22" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q22" s="12"/>
-      <c r="R22" s="12"/>
-      <c r="T22" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="U22" s="12"/>
-      <c r="V22" s="12"/>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A23" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="B23" s="12"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F23" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="M23" s="12"/>
-      <c r="N23" s="12"/>
-      <c r="O23" s="1"/>
-      <c r="P23" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q23" s="12"/>
-      <c r="R23" s="12"/>
-      <c r="T23" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="U23" s="12"/>
-      <c r="V23" s="12"/>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A24" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="B24" s="12"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F24" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="J24" s="12"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="M24" s="12"/>
-      <c r="N24" s="12"/>
-      <c r="O24" s="1"/>
-      <c r="P24" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q24" s="12"/>
-      <c r="R24" s="12"/>
-      <c r="T24" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="U24" s="12"/>
-      <c r="V24" s="12"/>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A25" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="B25" s="12"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F25" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="J25" s="12"/>
-      <c r="K25" s="12"/>
-      <c r="L25" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="M25" s="12"/>
-      <c r="N25" s="12"/>
-      <c r="O25" s="1"/>
-      <c r="P25" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q25" s="12"/>
-      <c r="R25" s="12"/>
-      <c r="T25" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="U25" s="12"/>
-      <c r="V25" s="12"/>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A26" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="B26" s="12"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F26" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="J26" s="12"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="12" t="s">
+      <c r="J29" s="14"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="M26" s="12"/>
-      <c r="N26" s="12"/>
-      <c r="O26" s="1"/>
-      <c r="P26" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q26" s="12"/>
-      <c r="R26" s="12"/>
-      <c r="T26" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="U26" s="12"/>
-      <c r="V26" s="12"/>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A27" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="B27" s="12"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F27" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="J27" s="12"/>
-      <c r="K27" s="12"/>
-      <c r="L27" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="M27" s="12"/>
-      <c r="N27" s="12"/>
-      <c r="O27" s="1"/>
-      <c r="P27" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q27" s="12"/>
-      <c r="R27" s="12"/>
-      <c r="T27" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="U27" s="12"/>
-      <c r="V27" s="12"/>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A28" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="B28" s="12"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F28" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="J28" s="12"/>
-      <c r="K28" s="12"/>
-      <c r="L28" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="M28" s="12"/>
-      <c r="N28" s="12"/>
-      <c r="O28" s="1"/>
-      <c r="P28" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q28" s="12"/>
-      <c r="R28" s="12"/>
-      <c r="T28" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="U28" s="12"/>
-      <c r="V28" s="12"/>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A29" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="B29" s="12"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F29" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="J29" s="12"/>
-      <c r="K29" s="12"/>
-      <c r="L29" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="M29" s="12"/>
-      <c r="N29" s="12"/>
-      <c r="O29" s="1"/>
-      <c r="P29" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q29" s="12"/>
-      <c r="R29" s="12"/>
-      <c r="T29" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="U29" s="12"/>
-      <c r="V29" s="12"/>
+      <c r="M29" s="14"/>
+      <c r="N29" s="14"/>
+      <c r="O29" s="8"/>
+      <c r="P29" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q29" s="14"/>
+      <c r="R29" s="14"/>
+      <c r="T29" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="U29" s="14"/>
+      <c r="V29" s="14"/>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" s="12"/>
@@ -1958,7 +1970,7 @@
       <c r="B31" s="12"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F31" s="13"/>
       <c r="G31" s="13"/>
@@ -1978,8 +1990,8 @@
       <c r="V31" s="12"/>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A32" s="14" t="s">
-        <v>110</v>
+      <c r="A32" s="15" t="s">
+        <v>107</v>
       </c>
       <c r="B32" s="12"/>
       <c r="C32" s="12"/>
@@ -1990,20 +2002,20 @@
       <c r="H32" s="12"/>
       <c r="I32" s="12"/>
       <c r="J32" s="12"/>
-      <c r="K32" s="9"/>
-      <c r="L32" s="9"/>
-      <c r="M32" s="9"/>
-      <c r="N32" s="9"/>
-      <c r="O32" s="9"/>
-      <c r="P32" s="9"/>
-      <c r="Q32" s="9"/>
-      <c r="R32" s="9"/>
-      <c r="T32" s="9"/>
-      <c r="U32" s="9"/>
-      <c r="V32" s="9"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="7"/>
+      <c r="N32" s="7"/>
+      <c r="O32" s="7"/>
+      <c r="P32" s="7"/>
+      <c r="Q32" s="7"/>
+      <c r="R32" s="7"/>
+      <c r="T32" s="7"/>
+      <c r="U32" s="7"/>
+      <c r="V32" s="7"/>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A33" s="14" t="s">
+      <c r="A33" s="15" t="s">
         <v>64</v>
       </c>
       <c r="B33" s="12"/>
@@ -2031,7 +2043,7 @@
       <c r="V33" s="2"/>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A34" s="14" t="s">
+      <c r="A34" s="15" t="s">
         <v>65</v>
       </c>
       <c r="B34" s="12"/>
@@ -2059,18 +2071,18 @@
       <c r="V34" s="2"/>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A35" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="B35" s="15"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="15"/>
-      <c r="H35" s="15"/>
-      <c r="I35" s="15"/>
-      <c r="J35" s="15"/>
+      <c r="A35" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="B35" s="16"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="16"/>
+      <c r="J35" s="16"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
@@ -2087,18 +2099,18 @@
       <c r="V35" s="2"/>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A36" s="16" t="s">
+      <c r="A36" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="B36" s="15"/>
-      <c r="C36" s="15"/>
-      <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="15"/>
-      <c r="G36" s="15"/>
-      <c r="H36" s="15"/>
-      <c r="I36" s="15"/>
-      <c r="J36" s="15"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="16"/>
+      <c r="I36" s="16"/>
+      <c r="J36" s="16"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
@@ -2115,18 +2127,18 @@
       <c r="V36" s="2"/>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A37" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="B37" s="15"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="15"/>
-      <c r="E37" s="15"/>
-      <c r="F37" s="15"/>
-      <c r="G37" s="15"/>
-      <c r="H37" s="15"/>
-      <c r="I37" s="15"/>
-      <c r="J37" s="15"/>
+      <c r="A37" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="B37" s="16"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="16"/>
+      <c r="I37" s="16"/>
+      <c r="J37" s="16"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
@@ -2143,7 +2155,7 @@
       <c r="V37" s="2"/>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A38" s="14" t="s">
+      <c r="A38" s="15" t="s">
         <v>67</v>
       </c>
       <c r="B38" s="12"/>
@@ -2170,8 +2182,8 @@
       <c r="U38" s="1"/>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A39" s="14" t="s">
-        <v>105</v>
+      <c r="A39" s="15" t="s">
+        <v>103</v>
       </c>
       <c r="B39" s="12"/>
       <c r="C39" s="12"/>
@@ -2201,7 +2213,7 @@
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B41" s="12"/>
       <c r="C41" s="12"/>
